--- a/xlsx/政策_intext.xlsx
+++ b/xlsx/政策_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>維基百科</t>
+    <t>维基百科</t>
   </si>
   <si>
     <t>政策_政策</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E7%B6%93</t>
   </si>
   <si>
-    <t>財經</t>
+    <t>财经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E</t>
@@ -77,31 +77,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E5%8B%95%E5%8A%9B%E8%BB%8A%E8%BC%9B</t>
   </si>
   <si>
-    <t>混合動力車輛</t>
+    <t>混合动力车辆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治學</t>
+    <t>政治学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AA%A2%E8%A8%8E</t>
   </si>
   <si>
-    <t>檢討</t>
+    <t>检讨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E5%9C%96</t>
   </si>
   <si>
-    <t>藍圖</t>
+    <t>蓝图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E6%94%BF%E7%AD%96</t>
   </si>
   <si>
-    <t>貨幣政策</t>
+    <t>货币政策</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%94%BF%E7%AD%96</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%BA%AB</t>
   </si>
   <si>
-    <t>智庫</t>
+    <t>智库</t>
   </si>
   <si>
     <t>https://cy.wikipedia.org/wiki/Polisi</t>
